--- a/price.xlsx
+++ b/price.xlsx
@@ -2709,7 +2709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
       <selection activeCell="B1269" sqref="B1269"/>
     </sheetView>
   </sheetViews>
@@ -4242,37 +4242,37 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="154" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A154" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B154" s="9"/>
     </row>
-    <row r="155" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="155" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A155" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B155" s="9"/>
     </row>
-    <row r="156" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="156" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A156" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B156" s="9"/>
     </row>
-    <row r="157" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="157" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A157" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B157" s="9"/>
     </row>
-    <row r="158" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="158" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A158" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B158" s="9"/>
     </row>
-    <row r="159" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="159" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A159" s="8" t="s">
         <v>67</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="160" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A160" s="8" t="s">
         <v>30</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="161" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A161" s="8" t="s">
         <v>111</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="162" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A162" s="8" t="s">
         <v>112</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="163" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A163" s="8" t="s">
         <v>113</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="164" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A164" s="8" t="s">
         <v>114</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="165" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A165" s="8" t="s">
         <v>87</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="166" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A166" s="8" t="s">
         <v>28</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="167" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A167" s="8" t="s">
         <v>29</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="168" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A168" s="8" t="s">
         <v>117</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="169" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A169" s="8" t="s">
         <v>118</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="170" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A170" s="8" t="s">
         <v>119</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="171" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A171" s="8" t="s">
         <v>121</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="172" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A172" s="8" t="s">
         <v>122</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="173" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A173" s="8" t="s">
         <v>123</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="174" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A174" s="8" t="s">
         <v>124</v>
       </c>
@@ -4400,79 +4400,79 @@
         <v>125</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="175" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A175" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B175" s="9"/>
     </row>
-    <row r="176" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="176" spans="1:2" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A176" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B176" s="9"/>
     </row>
-    <row r="177" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="177" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A177" s="8" t="s">
         <v>128</v>
       </c>
       <c r="B177" s="9"/>
     </row>
-    <row r="178" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="178" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A178" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B178" s="9"/>
     </row>
-    <row r="179" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="179" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A179" s="8" t="s">
         <v>130</v>
       </c>
       <c r="B179" s="9"/>
     </row>
-    <row r="180" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="180" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A180" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B180" s="9"/>
     </row>
-    <row r="181" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="181" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A181" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B181" s="9"/>
     </row>
-    <row r="182" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="182" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A182" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B182" s="9"/>
     </row>
-    <row r="183" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="183" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A183" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B183" s="9"/>
     </row>
-    <row r="184" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="184" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A184" s="8" t="s">
         <v>135</v>
       </c>
       <c r="B184" s="9"/>
     </row>
-    <row r="185" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="185" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A185" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B185" s="9"/>
     </row>
-    <row r="186" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="186" spans="1:26" ht="14.25" customHeight="1" outlineLevel="2">
       <c r="A186" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B186" s="9"/>
     </row>
-    <row r="187" spans="1:26" ht="14.25" customHeight="1" collapsed="1">
+    <row r="187" spans="1:26" ht="14.25" customHeight="1">
       <c r="A187" s="3" t="s">
         <v>752</v>
       </c>
@@ -4502,25 +4502,25 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="188" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A188" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B188" s="9"/>
     </row>
-    <row r="189" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="189" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A189" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B189" s="9"/>
     </row>
-    <row r="190" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="190" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A190" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B190" s="9"/>
     </row>
-    <row r="191" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="191" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A191" s="8" t="s">
         <v>139</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="192" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="192" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A192" s="8" t="s">
         <v>141</v>
       </c>
@@ -4536,13 +4536,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="193" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A193" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B193" s="9"/>
     </row>
-    <row r="194" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="194" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A194" s="8" t="s">
         <v>43</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="195" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A195" s="8" t="s">
         <v>25</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="196" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A196" s="8" t="s">
         <v>30</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="197" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A197" s="8" t="s">
         <v>41</v>
       </c>
@@ -4574,13 +4574,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="198" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A198" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B198" s="9"/>
     </row>
-    <row r="199" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="199" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A199" s="8" t="s">
         <v>143</v>
       </c>
@@ -4588,13 +4588,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="200" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A200" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B200" s="9"/>
     </row>
-    <row r="201" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="201" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A201" s="8" t="s">
         <v>24</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="202" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A202" s="8" t="s">
         <v>46</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="203" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A203" s="8" t="s">
         <v>44</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="204" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A204" s="8" t="s">
         <v>49</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="205" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A205" s="8" t="s">
         <v>31</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="206" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A206" s="8" t="s">
         <v>41</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="207" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A207" s="8" t="s">
         <v>92</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="208" spans="1:2" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A208" s="8" t="s">
         <v>90</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="209" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="209" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A209" s="8" t="s">
         <v>51</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="210" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A210" s="8" t="s">
         <v>42</v>
       </c>
@@ -4674,31 +4674,31 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="211" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A211" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B211" s="9"/>
     </row>
-    <row r="212" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="212" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A212" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B212" s="9"/>
     </row>
-    <row r="213" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="213" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A213" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B213" s="9"/>
     </row>
-    <row r="214" spans="1:26" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="214" spans="1:26" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A214" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B214" s="9"/>
     </row>
-    <row r="215" spans="1:26" ht="14.25" customHeight="1" collapsed="1">
+    <row r="215" spans="1:26" ht="14.25" customHeight="1">
       <c r="A215" s="3" t="s">
         <v>753</v>
       </c>
